--- a/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
+++ b/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,6 +95,43 @@
   <si>
     <t>오른팔을 아래에서 위로 크게 휘둘러
 적을 가격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalAtk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalAtk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 소리를 내어 주변의 적을 도발하고
+ 적의 방어력을 3초간 20% 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7x7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,11 +247,20 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,14 +545,16 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
+    <col min="13" max="13" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -527,12 +571,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -551,12 +597,14 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -566,7 +614,7 @@
         <v>137701</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5">
         <v>0.15</v>
@@ -574,42 +622,46 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="b">
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>137702</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="b">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>137703</v>
       </c>
@@ -617,21 +669,46 @@
         <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="6">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="b">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>137704</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>

--- a/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
+++ b/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\가디언 테일즈\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B785BA-A8EB-47B8-8BF8-15DC99F5E64E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="6825"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,18 +128,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -541,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="b">
         <v>1</v>
@@ -675,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>0</v>
@@ -701,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>0</v>

--- a/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
+++ b/가디언 테일즈/가디언테일즈_공격_모션_테이블.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\가디언 테일즈\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B785BA-A8EB-47B8-8BF8-15DC99F5E64E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,26 +119,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7x7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9x9
+11x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15x15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -542,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="b">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>0</v>
